--- a/planilha_transferencia.xlsx
+++ b/planilha_transferencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:G1"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Qtd</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Storage location</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
